--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Work/art_py/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E474ACF-D076-7F49-BA47-E05A153F2D65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5971ED0A-4D15-D74A-9032-20C40FA57AD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{24C492A3-E854-DA40-8DD5-6D57EC291164}"/>
+    <workbookView xWindow="3160" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{24C492A3-E854-DA40-8DD5-6D57EC291164}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2E44907-4902-DE43-BD05-BA751659E5E7}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -593,9 +593,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" s="1" customFormat="1" ht="19">
+    <row r="7" spans="1:4" ht="19">
       <c r="A7" s="2">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>8</v>
@@ -606,6 +606,30 @@
       <c r="D7" s="3" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="8" spans="1:4" ht="18">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="18">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="18">
+      <c r="A10" s="2"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="18">
+      <c r="A11" s="2"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
